--- a/accessibility.xlsx
+++ b/accessibility.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="Results" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="sheet1" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="159">
   <si>
     <t>domain</t>
   </si>
@@ -67,70 +67,473 @@
     <t>domain_count</t>
   </si>
   <si>
-    <t>nslookup_ip_1</t>
-  </si>
-  <si>
-    <t>nslookup_ip_2</t>
-  </si>
-  <si>
-    <t>nslookup_ip_3</t>
-  </si>
-  <si>
-    <t>nslookup_ip_4</t>
-  </si>
-  <si>
-    <t>nslookup_ip_5</t>
-  </si>
-  <si>
-    <t>nslookup_ip_6</t>
-  </si>
-  <si>
-    <t>nslookup_ip_7</t>
-  </si>
-  <si>
-    <t>nslookup_ip_8</t>
-  </si>
-  <si>
-    <t>nslookup_ip_9</t>
-  </si>
-  <si>
-    <t>nslookup_ip_10</t>
-  </si>
-  <si>
-    <t>accessibility</t>
+    <t>nslookupA</t>
+  </si>
+  <si>
+    <t>nslookupAAAA</t>
+  </si>
+  <si>
+    <t>nslookupCNAME</t>
+  </si>
+  <si>
+    <t>nslookupMX</t>
+  </si>
+  <si>
+    <t>nslookupNS</t>
+  </si>
+  <si>
+    <t>nslookupPTR</t>
+  </si>
+  <si>
+    <t>nslookupTXT</t>
+  </si>
+  <si>
+    <t>nslookupSRV</t>
+  </si>
+  <si>
+    <t>nslookupSOA</t>
+  </si>
+  <si>
+    <t>Violations</t>
+  </si>
+  <si>
+    <t>Passes</t>
+  </si>
+  <si>
+    <t>Incomplete</t>
+  </si>
+  <si>
+    <t>Inapplicable</t>
+  </si>
+  <si>
+    <t>000.institute</t>
+  </si>
+  <si>
+    <t>institute</t>
+  </si>
+  <si>
+    <t>2025-07-21T06:59:18.280518</t>
+  </si>
+  <si>
+    <t>terminal-error: Command '['whois', '000.institute']' timed out after 20 seconds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+Name:	000.institute
+Address: 3.13.167.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+*** Can't find 000.institute: No answer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+*** Can't find 000.institute: No answer
+Authoritative answers can be found from:
+000.institute
+	origin = ns1.name.com
+	mail addr = hostmaster.nsone.net
+	serial = 1579127764
+	refresh = 7200
+	retry = 3600
+	expire = 604800
+	minimum = 300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+000.institute	mail exchanger = 10 in1-smtp.messagingengine.com.
+000.institute	mail exchanger = 20 in2-smtp.messagingengine.com.
+Authoritative answers can be found from:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+000.institute	nameserver = ns2ckr.name.com.
+000.institute	nameserver = ns1kpv.name.com.
+000.institute	nameserver = ns3jnr.name.com.
+000.institute	nameserver = ns4ghm.name.com.
+Authoritative answers can be found from:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+000.institute	text = "v=spf1 include:spf.messagingengine.com ?all"
+Authoritative answers can be found from:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+000.institute
+	origin = ns1.name.com
+	mail addr = hostmaster.nsone.net
+	serial = 1579127764
+	refresh = 7200
+	retry = 3600
+	expire = 604800
+	minimum = 300
+Authoritative answers can be found from:</t>
+  </si>
+  <si>
+    <t>ERR</t>
+  </si>
+  <si>
+    <t>1031.institute</t>
+  </si>
+  <si>
+    <t>2025-07-21T07:01:58.453506</t>
+  </si>
+  <si>
+    <t>terminal-error: Command '['whois', '1031.institute']' timed out after 20 seconds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+Name:	1031.institute
+Address: 104.21.36.34
+Name:	1031.institute
+Address: 172.67.184.89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+Name:	1031.institute
+Address: 2606:4700:3035::6815:2422
+Name:	1031.institute
+Address: 2606:4700:3033::ac43:b859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+*** Can't find 1031.institute: No answer
+Authoritative answers can be found from:
+1031.institute
+	origin = ram.ns.cloudflare.com
+	mail addr = dns.cloudflare.com
+	serial = 2377792405
+	refresh = 10000
+	retry = 2400
+	expire = 604800
+	minimum = 1800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+1031.institute	mail exchanger = 20 fwd2.porkbun.com.
+1031.institute	mail exchanger = 10 fwd1.porkbun.com.
+Authoritative answers can be found from:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+1031.institute	nameserver = venus.ns.cloudflare.com.
+1031.institute	nameserver = ram.ns.cloudflare.com.
+Authoritative answers can be found from:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+1031.institute	text = "v=spf1 mx ~all"
+Authoritative answers can be found from:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+1031.institute
+	origin = ram.ns.cloudflare.com
+	mail addr = dns.cloudflare.com
+	serial = 2377792405
+	refresh = 10000
+	retry = 2400
+	expire = 604800
+	minimum = 1800
+Authoritative answers can be found from:</t>
+  </si>
+  <si>
+    <t>0rg.institute</t>
+  </si>
+  <si>
+    <t>2025-07-21T06:59:58.324556</t>
+  </si>
+  <si>
+    <t>terminal-error: Command '['whois', '0rg.institute']' timed out after 20 seconds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+Name:	0rg.institute
+Address: 162.255.119.218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+*** Can't find 0rg.institute: No answer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+*** Can't find 0rg.institute: No answer
+Authoritative answers can be found from:
+0rg.institute
+	origin = dns1.registrar-servers.com
+	mail addr = hostmaster.registrar-servers.com
+	serial = 1740517028
+	refresh = 43200
+	retry = 3600
+	expire = 604800
+	minimum = 3601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+0rg.institute	mail exchanger = 10 mx.zoho.com.
+0rg.institute	mail exchanger = 50 mx3.zoho.com.
+0rg.institute	mail exchanger = 20 mx2.zoho.com.
+Authoritative answers can be found from:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+0rg.institute	nameserver = dns2.registrar-servers.com.
+0rg.institute	nameserver = dns1.registrar-servers.com.
+Authoritative answers can be found from:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+0rg.institute	text = "v=spf1 include:zohomail.com ~all"
+0rg.institute	text = "zoho-verification=zb80233793.zmverify.zoho.com"
+Authoritative answers can be found from:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+0rg.institute
+	origin = dns1.registrar-servers.com
+	mail addr = hostmaster.registrar-servers.com
+	serial = 1740517028
+	refresh = 43200
+	retry = 3600
+	expire = 604800
+	minimum = 3601
+Authoritative answers can be found from:</t>
+  </si>
+  <si>
+    <t>108.institute</t>
+  </si>
+  <si>
+    <t>2025-07-21T07:02:18.474713</t>
+  </si>
+  <si>
+    <t>terminal-error: Command '['whois', '108.institute']' timed out after 20 seconds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+Name:	108.institute
+Address: 217.70.184.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+*** Can't find 108.institute: No answer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+*** Can't find 108.institute: No answer
+Authoritative answers can be found from:
+108.institute
+	origin = ns1.gandi.net
+	mail addr = hostmaster.gandi.net
+	serial = 1752710400
+	refresh = 10800
+	retry = 3600
+	expire = 604800
+	minimum = 10800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+108.institute	mail exchanger = 50 fb.mail.gandi.net.
+108.institute	mail exchanger = 10 spool.mail.gandi.net.
+Authoritative answers can be found from:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+108.institute	nameserver = ns-212-c.gandi.net.
+108.institute	nameserver = ns-26-a.gandi.net.
+108.institute	nameserver = ns-133-b.gandi.net.
+Authoritative answers can be found from:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+108.institute	text = "v=spf1 include:_mailcust.gandi.net ?all"
+Authoritative answers can be found from:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+108.institute
+	origin = ns1.gandi.net
+	mail addr = hostmaster.gandi.net
+	serial = 1752710400
+	refresh = 10800
+	retry = 3600
+	expire = 604800
+	minimum = 10800
+Authoritative answers can be found from:</t>
+  </si>
+  <si>
+    <t>00.institute</t>
+  </si>
+  <si>
+    <t>2025-07-21T06:58:58.258592</t>
+  </si>
+  <si>
+    <t>terminal-error: Command '['whois', '00.institute']' timed out after 20 seconds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+Name:	00.institute
+Address: 44.227.65.245
+Name:	00.institute
+Address: 44.227.76.166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+*** Can't find 00.institute: No answer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+*** Can't find 00.institute: No answer
+Authoritative answers can be found from:
+00.institute
+	origin = curitiba.ns.porkbun.com
+	mail addr = dns.cloudflare.com
+	serial = 2372670378
+	refresh = 10000
+	retry = 2400
+	expire = 604800
+	minimum = 1800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+00.institute	nameserver = salvador.ns.porkbun.com.
+00.institute	nameserver = curitiba.ns.porkbun.com.
+00.institute	nameserver = maceio.ns.porkbun.com.
+00.institute	nameserver = fortaleza.ns.porkbun.com.
+Authoritative answers can be found from:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+00.institute
+	origin = curitiba.ns.porkbun.com
+	mail addr = dns.cloudflare.com
+	serial = 2372670378
+	refresh = 10000
+	retry = 2400
+	expire = 604800
+	minimum = 1800
+Authoritative answers can be found from:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+00.institute	nameserver = fortaleza.ns.porkbun.com.
+00.institute	nameserver = salvador.ns.porkbun.com.
+00.institute	nameserver = curitiba.ns.porkbun.com.
+00.institute	nameserver = maceio.ns.porkbun.com.
+Authoritative answers can be found from:</t>
+  </si>
+  <si>
+    <t>112pawangslot.institute</t>
+  </si>
+  <si>
+    <t>2025-07-21T07:03:58.583726</t>
+  </si>
+  <si>
+    <t>terminal-error: Command '['whois', '112pawangslot.institute']' timed out after 20 seconds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+** server can't find 112pawangslot.institute: NXDOMAIN</t>
+  </si>
+  <si>
+    <t>UNREACHABLE</t>
   </si>
   <si>
     <t>001.institute</t>
   </si>
   <si>
-    <t>institute</t>
-  </si>
-  <si>
     <t>2025-07-21T06:59:38.302442</t>
   </si>
   <si>
     <t>terminal-error: Command '['whois', '001.institute']' timed out after 20 seconds</t>
   </si>
   <si>
-    <t>127.0.0.53</t>
-  </si>
-  <si>
-    <t>UNREACHABLE</t>
-  </si>
-  <si>
-    <t>0rg.institute</t>
-  </si>
-  <si>
-    <t>2025-07-21T06:59:58.324556</t>
-  </si>
-  <si>
-    <t>terminal-error: Command '['whois', '0rg.institute']' timed out after 20 seconds</t>
-  </si>
-  <si>
-    <t>162.255.119.218</t>
-  </si>
-  <si>
-    <t>NO</t>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+** server can't find 001.institute: NXDOMAIN</t>
+  </si>
+  <si>
+    <t>10k.institute</t>
+  </si>
+  <si>
+    <t>2025-07-21T07:02:38.496885</t>
+  </si>
+  <si>
+    <t>terminal-error: Command '['whois', '10k.institute']' timed out after 20 seconds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+** server can't find 10k.institute: NXDOMAIN</t>
   </si>
   <si>
     <t>1000x.institute</t>
@@ -142,25 +545,339 @@
     <t>terminal-error: Command '['whois', '1000x.institute']' timed out after 20 seconds</t>
   </si>
   <si>
-    <t>10k.institute</t>
-  </si>
-  <si>
-    <t>2025-07-21T07:02:38.496885</t>
-  </si>
-  <si>
-    <t>terminal-error: Command '['whois', '10k.institute']' timed out after 20 seconds</t>
-  </si>
-  <si>
-    <t>108.institute</t>
-  </si>
-  <si>
-    <t>2025-07-21T07:02:18.474713</t>
-  </si>
-  <si>
-    <t>terminal-error: Command '['whois', '108.institute']' timed out after 20 seconds</t>
-  </si>
-  <si>
-    <t>217.70.184.38</t>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+** server can't find 1000x.institute: NXDOMAIN</t>
+  </si>
+  <si>
+    <t>0x00.institute</t>
+  </si>
+  <si>
+    <t>2025-07-21T07:00:18.345599</t>
+  </si>
+  <si>
+    <t>terminal-error: Command '['whois', '0x00.institute']' timed out after 20 seconds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+Name:	0x00.institute
+Address: 185.248.198.180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+*** Can't find 0x00.institute: No answer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+*** Can't find 0x00.institute: No answer
+Authoritative answers can be found from:
+0x00.institute
+	origin = ns1.gazduire.net
+	mail addr = hostmaster.0x00.institute
+	serial = 2025062005
+	refresh = 3600
+	retry = 3600
+	expire = 1209600
+	minimum = 86400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+0x00.institute	mail exchanger = 10 mail.0x00.institute.
+Authoritative answers can be found from:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+0x00.institute	nameserver = ns1.gazduire.net.
+0x00.institute	nameserver = ns2.gazduire.net.
+Authoritative answers can be found from:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+0x00.institute	text = "v=spf1 a mx ip4:185.248.198.0 ~all"
+Authoritative answers can be found from:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+0x00.institute
+	origin = ns1.gazduire.net
+	mail addr = hostmaster.0x00.institute
+	serial = 2025062005
+	refresh = 3600
+	retry = 3600
+	expire = 1209600
+	minimum = 86400
+Authoritative answers can be found from:</t>
+  </si>
+  <si>
+    <t>1000neue.institute</t>
+  </si>
+  <si>
+    <t>2025-07-21T07:00:58.388503</t>
+  </si>
+  <si>
+    <t>terminal-error: Command '['whois', '1000neue.institute']' timed out after 20 seconds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+Name:	1000neue.institute
+Address: 185.224.138.147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+*** Can't find 1000neue.institute: No answer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+*** Can't find 1000neue.institute: No answer
+Authoritative answers can be found from:
+1000neue.institute
+	origin = ns1.dns-parking.com
+	mail addr = dns.hostinger.com
+	serial = 2025071701
+	refresh = 10000
+	retry = 2400
+	expire = 604800
+	minimum = 600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+1000neue.institute	mail exchanger = 5 mx1.hostinger.com.
+1000neue.institute	mail exchanger = 10 mx2.hostinger.com.
+Authoritative answers can be found from:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+1000neue.institute	nameserver = ns2.dns-parking.com.
+1000neue.institute	nameserver = ns1.dns-parking.com.
+Authoritative answers can be found from:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+1000neue.institute	text = "v=spf1 include:_spf.mail.hostinger.com ~all"
+Authoritative answers can be found from:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+1000neue.institute
+	origin = ns1.dns-parking.com
+	mail addr = dns.hostinger.com
+	serial = 2025071701
+	refresh = 10000
+	retry = 2400
+	expire = 604800
+	minimum = 600
+Authoritative answers can be found from:</t>
+  </si>
+  <si>
+    <t>1111.institute</t>
+  </si>
+  <si>
+    <t>2025-07-21T07:03:38.562427</t>
+  </si>
+  <si>
+    <t>terminal-error: Command '['whois', '1111.institute']' timed out after 20 seconds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+Name:	1111.institute
+Address: 13.248.213.45
+Name:	1111.institute
+Address: 76.223.67.189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+*** Can't find 1111.institute: No answer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+*** Can't find 1111.institute: No answer
+Authoritative answers can be found from:
+1111.institute
+	origin = ns61.domaincontrol.com
+	mail addr = dns.jomax.net
+	serial = 2025070200
+	refresh = 28800
+	retry = 7200
+	expire = 604800
+	minimum = 600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+1111.institute	nameserver = ns62.domaincontrol.com.
+1111.institute	nameserver = ns61.domaincontrol.com.
+Authoritative answers can be found from:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+1111.institute
+	origin = ns61.domaincontrol.com
+	mail addr = dns.jomax.net
+	serial = 2025070200
+	refresh = 28800
+	retry = 7200
+	expire = 604800
+	minimum = 600
+Authoritative answers can be found from:</t>
+  </si>
+  <si>
+    <t>100.institute</t>
+  </si>
+  <si>
+    <t>2025-07-21T07:00:38.367482</t>
+  </si>
+  <si>
+    <t>terminal-error: Command '['whois', '100.institute']' timed out after 20 seconds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+Name:	100.institute
+Address: 15.197.148.33
+Name:	100.institute
+Address: 3.33.130.190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+*** Can't find 100.institute: No answer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+*** Can't find 100.institute: No answer
+Authoritative answers can be found from:
+100.institute
+	origin = ns35.domaincontrol.com
+	mail addr = dns.jomax.net
+	serial = 2023092600
+	refresh = 28800
+	retry = 7200
+	expire = 604800
+	minimum = 600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+100.institute	nameserver = ns35.domaincontrol.com.
+100.institute	nameserver = ns36.domaincontrol.com.
+Authoritative answers can be found from:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+100.institute
+	origin = ns35.domaincontrol.com
+	mail addr = dns.jomax.net
+	serial = 2023092600
+	refresh = 28800
+	retry = 7200
+	expire = 604800
+	minimum = 600
+Authoritative answers can be found from:</t>
+  </si>
+  <si>
+    <t>101.institute</t>
+  </si>
+  <si>
+    <t>2025-07-21T07:01:38.431408</t>
+  </si>
+  <si>
+    <t>terminal-error: Command '['whois', '101.institute']' timed out after 20 seconds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+Name:	101.institute
+Address: 13.248.243.5
+Name:	101.institute
+Address: 76.223.105.230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+*** Can't find 101.institute: No answer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+*** Can't find 101.institute: No answer
+Authoritative answers can be found from:
+101.institute
+	origin = ns23.domaincontrol.com
+	mail addr = dns.jomax.net
+	serial = 2024111701
+	refresh = 28800
+	retry = 7200
+	expire = 604800
+	minimum = 600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+101.institute	nameserver = ns24.domaincontrol.com.
+101.institute	nameserver = ns23.domaincontrol.com.
+Authoritative answers can be found from:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+101.institute
+	origin = ns23.domaincontrol.com
+	mail addr = dns.jomax.net
+	serial = 2024111701
+	refresh = 28800
+	retry = 7200
+	expire = 604800
+	minimum = 600
+Authoritative answers can be found from:</t>
   </si>
   <si>
     <t>110.institute</t>
@@ -172,121 +889,54 @@
     <t>terminal-error: Command '['whois', '110.institute']' timed out after 20 seconds</t>
   </si>
   <si>
-    <t>52.223.13.41</t>
-  </si>
-  <si>
-    <t>112pawangslot.institute</t>
-  </si>
-  <si>
-    <t>2025-07-21T07:03:58.583726</t>
-  </si>
-  <si>
-    <t>terminal-error: Command '['whois', '112pawangslot.institute']' timed out after 20 seconds</t>
-  </si>
-  <si>
-    <t>00.institute</t>
-  </si>
-  <si>
-    <t>2025-07-21T06:58:58.258592</t>
-  </si>
-  <si>
-    <t>terminal-error: Command '['whois', '00.institute']' timed out after 20 seconds</t>
-  </si>
-  <si>
-    <t>44.227.65.245</t>
-  </si>
-  <si>
-    <t>44.227.76.166</t>
-  </si>
-  <si>
-    <t>1000neue.institute</t>
-  </si>
-  <si>
-    <t>2025-07-21T07:00:58.388503</t>
-  </si>
-  <si>
-    <t>terminal-error: Command '['whois', '1000neue.institute']' timed out after 20 seconds</t>
-  </si>
-  <si>
-    <t>185.224.138.147</t>
-  </si>
-  <si>
-    <t>000.institute</t>
-  </si>
-  <si>
-    <t>2025-07-21T06:59:18.280518</t>
-  </si>
-  <si>
-    <t>terminal-error: Command '['whois', '000.institute']' timed out after 20 seconds</t>
-  </si>
-  <si>
-    <t>3.13.167.13</t>
-  </si>
-  <si>
-    <t>1031.institute</t>
-  </si>
-  <si>
-    <t>2025-07-21T07:01:58.453506</t>
-  </si>
-  <si>
-    <t>terminal-error: Command '['whois', '1031.institute']' timed out after 20 seconds</t>
-  </si>
-  <si>
-    <t>104.21.36.34</t>
-  </si>
-  <si>
-    <t>172.67.184.89</t>
-  </si>
-  <si>
-    <t>2606:4700:3035::6815:2422</t>
-  </si>
-  <si>
-    <t>2606:4700:3033::ac43:b859</t>
-  </si>
-  <si>
-    <t>101.institute</t>
-  </si>
-  <si>
-    <t>2025-07-21T07:01:38.431408</t>
-  </si>
-  <si>
-    <t>terminal-error: Command '['whois', '101.institute']' timed out after 20 seconds</t>
-  </si>
-  <si>
-    <t>13.248.243.5</t>
-  </si>
-  <si>
-    <t>76.223.105.230</t>
-  </si>
-  <si>
-    <t>100.institute</t>
-  </si>
-  <si>
-    <t>2025-07-21T07:00:38.367482</t>
-  </si>
-  <si>
-    <t>terminal-error: Command '['whois', '100.institute']' timed out after 20 seconds</t>
-  </si>
-  <si>
-    <t>15.197.148.33</t>
-  </si>
-  <si>
-    <t>3.33.130.190</t>
-  </si>
-  <si>
-    <t>1111.institute</t>
-  </si>
-  <si>
-    <t>2025-07-21T07:03:38.562427</t>
-  </si>
-  <si>
-    <t>terminal-error: Command '['whois', '1111.institute']' timed out after 20 seconds</t>
-  </si>
-  <si>
-    <t>76.223.67.189</t>
-  </si>
-  <si>
-    <t>13.248.213.45</t>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+Name:	110.institute
+Address: 52.223.13.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+*** Can't find 110.institute: No answer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+*** Can't find 110.institute: No answer
+Authoritative answers can be found from:
+110.institute
+	origin = ns1.renewyourname.net
+	mail addr = hostmaster.renewyourname.net
+	serial = 2025061707
+	refresh = 86400
+	retry = 7200
+	expire = 2592000
+	minimum = 43200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+110.institute	nameserver = ns2.renewyourname.net.
+110.institute	nameserver = ns1.renewyourname.net.
+Authoritative answers can be found from:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+110.institute
+	origin = ns1.renewyourname.net
+	mail addr = hostmaster.renewyourname.net
+	serial = 2025061707
+	refresh = 86400
+	retry = 7200
+	expire = 2592000
+	minimum = 43200
+Authoritative answers can be found from:</t>
   </si>
   <si>
     <t>10x.institute</t>
@@ -298,22 +948,56 @@
     <t>terminal-error: Command '['whois', '10x.institute']' timed out after 20 seconds</t>
   </si>
   <si>
-    <t>54.149.79.189</t>
-  </si>
-  <si>
-    <t>34.216.117.25</t>
-  </si>
-  <si>
-    <t>0x00.institute</t>
-  </si>
-  <si>
-    <t>2025-07-21T07:00:18.345599</t>
-  </si>
-  <si>
-    <t>terminal-error: Command '['whois', '0x00.institute']' timed out after 20 seconds</t>
-  </si>
-  <si>
-    <t>185.248.198.180</t>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+Name:	10x.institute
+Address: 34.216.117.25
+Name:	10x.institute
+Address: 54.149.79.189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+*** Can't find 10x.institute: No answer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+*** Can't find 10x.institute: No answer
+Authoritative answers can be found from:
+10x.institute
+	origin = launch1.spaceship.net
+	mail addr = support.spaceship.com
+	serial = 1750431983
+	refresh = 43200
+	retry = 3600
+	expire = 604800
+	minimum = 3600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+10x.institute	nameserver = launch2.spaceship.net.
+10x.institute	nameserver = launch1.spaceship.net.
+Authoritative answers can be found from:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+10x.institute
+	origin = launch1.spaceship.net
+	mail addr = support.spaceship.com
+	serial = 1750431983
+	refresh = 43200
+	retry = 3600
+	expire = 604800
+	minimum = 3600
+Authoritative answers can be found from:</t>
   </si>
 </sst>
 </file>
@@ -690,10 +1374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC18"/>
+  <dimension ref="A1:AF18"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -775,468 +1459,969 @@
       <c r="AA1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
+      <c r="AE1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2">
+        <v>7</v>
+      </c>
+      <c r="S2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W2" t="s">
+        <v>39</v>
+      </c>
+      <c r="X2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
         <v>32</v>
       </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
-      <c r="S2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
       <c r="P3" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="Q3" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="T3" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="U3" t="s">
-        <v>39</v>
+        <v>48</v>
+      </c>
+      <c r="V3" t="s">
+        <v>49</v>
+      </c>
+      <c r="W3" t="s">
+        <v>50</v>
+      </c>
+      <c r="X3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC3">
+        <v>3</v>
+      </c>
+      <c r="AD3">
+        <v>8</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P4" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="Q4" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="T4" t="s">
-        <v>34</v>
+        <v>57</v>
+      </c>
+      <c r="U4" t="s">
+        <v>58</v>
+      </c>
+      <c r="V4" t="s">
+        <v>59</v>
+      </c>
+      <c r="W4" t="s">
+        <v>60</v>
+      </c>
+      <c r="X4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P5" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="Q5" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="R5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="S5" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="T5" t="s">
-        <v>34</v>
+        <v>67</v>
+      </c>
+      <c r="U5" t="s">
+        <v>68</v>
+      </c>
+      <c r="V5" t="s">
+        <v>69</v>
+      </c>
+      <c r="W5" t="s">
+        <v>70</v>
+      </c>
+      <c r="X5" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P6" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="Q6" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="R6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="T6" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="U6" t="s">
-        <v>39</v>
+        <v>78</v>
+      </c>
+      <c r="V6" t="s">
+        <v>78</v>
+      </c>
+      <c r="W6" t="s">
+        <v>79</v>
+      </c>
+      <c r="X6" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC6">
+        <v>3</v>
+      </c>
+      <c r="AD6">
+        <v>2</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>75</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7" t="s">
+        <v>76</v>
+      </c>
+      <c r="T7" t="s">
+        <v>77</v>
+      </c>
+      <c r="U7" t="s">
+        <v>78</v>
+      </c>
+      <c r="V7" t="s">
+        <v>78</v>
+      </c>
+      <c r="W7" t="s">
+        <v>81</v>
+      </c>
+      <c r="X7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC7">
+        <v>5</v>
+      </c>
+      <c r="AD7">
+        <v>35</v>
+      </c>
+      <c r="AE7">
+        <v>2</v>
+      </c>
+      <c r="AF7">
         <v>50</v>
       </c>
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>52</v>
-      </c>
-      <c r="R7">
-        <v>1</v>
-      </c>
-      <c r="S7" t="s">
-        <v>33</v>
-      </c>
-      <c r="T7" t="s">
-        <v>53</v>
-      </c>
-      <c r="U7" t="s">
-        <v>39</v>
-      </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P8" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="Q8" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="T8" t="s">
-        <v>34</v>
+        <v>85</v>
+      </c>
+      <c r="U8" t="s">
+        <v>85</v>
+      </c>
+      <c r="V8" t="s">
+        <v>85</v>
+      </c>
+      <c r="W8" t="s">
+        <v>85</v>
+      </c>
+      <c r="X8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P9" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="Q9" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9" t="s">
+        <v>90</v>
+      </c>
+      <c r="T9" t="s">
+        <v>90</v>
+      </c>
+      <c r="U9" t="s">
+        <v>90</v>
+      </c>
+      <c r="V9" t="s">
+        <v>90</v>
+      </c>
+      <c r="W9" t="s">
+        <v>90</v>
+      </c>
+      <c r="X9" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>93</v>
+      </c>
+      <c r="R10">
+        <v>11</v>
+      </c>
+      <c r="S10" t="s">
+        <v>94</v>
+      </c>
+      <c r="T10" t="s">
+        <v>94</v>
+      </c>
+      <c r="U10" t="s">
+        <v>94</v>
+      </c>
+      <c r="V10" t="s">
+        <v>94</v>
+      </c>
+      <c r="W10" t="s">
+        <v>94</v>
+      </c>
+      <c r="X10" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="P11" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>97</v>
+      </c>
+      <c r="R11">
         <v>0</v>
       </c>
-      <c r="S9" t="s">
-        <v>33</v>
-      </c>
-      <c r="T9" t="s">
-        <v>60</v>
-      </c>
-      <c r="U9" t="s">
-        <v>61</v>
-      </c>
-      <c r="V9" t="s">
-        <v>39</v>
+      <c r="S11" t="s">
+        <v>98</v>
+      </c>
+      <c r="T11" t="s">
+        <v>98</v>
+      </c>
+      <c r="U11" t="s">
+        <v>98</v>
+      </c>
+      <c r="V11" t="s">
+        <v>98</v>
+      </c>
+      <c r="W11" t="s">
+        <v>98</v>
+      </c>
+      <c r="X11" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="P10" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>59</v>
-      </c>
-      <c r="R10">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="P12" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>101</v>
+      </c>
+      <c r="R12">
         <v>0</v>
       </c>
-      <c r="S10" t="s">
-        <v>33</v>
-      </c>
-      <c r="T10" t="s">
-        <v>60</v>
-      </c>
-      <c r="U10" t="s">
-        <v>61</v>
-      </c>
-      <c r="V10" t="s">
-        <v>39</v>
+      <c r="S12" t="s">
+        <v>102</v>
+      </c>
+      <c r="T12" t="s">
+        <v>103</v>
+      </c>
+      <c r="U12" t="s">
+        <v>104</v>
+      </c>
+      <c r="V12" t="s">
+        <v>105</v>
+      </c>
+      <c r="W12" t="s">
+        <v>106</v>
+      </c>
+      <c r="X12" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="P11" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>64</v>
-      </c>
-      <c r="R11">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="P13" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>111</v>
+      </c>
+      <c r="R13">
         <v>1</v>
       </c>
-      <c r="S11" t="s">
-        <v>33</v>
-      </c>
-      <c r="T11" t="s">
-        <v>65</v>
-      </c>
-      <c r="U11" t="s">
-        <v>39</v>
+      <c r="S13" t="s">
+        <v>112</v>
+      </c>
+      <c r="T13" t="s">
+        <v>113</v>
+      </c>
+      <c r="U13" t="s">
+        <v>114</v>
+      </c>
+      <c r="V13" t="s">
+        <v>115</v>
+      </c>
+      <c r="W13" t="s">
+        <v>116</v>
+      </c>
+      <c r="X13" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC13">
+        <v>3</v>
+      </c>
+      <c r="AD13">
+        <v>46</v>
+      </c>
+      <c r="AE13">
+        <v>4</v>
+      </c>
+      <c r="AF13">
+        <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="P12" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>68</v>
-      </c>
-      <c r="R12">
-        <v>7</v>
-      </c>
-      <c r="S12" t="s">
-        <v>33</v>
-      </c>
-      <c r="T12" t="s">
-        <v>69</v>
-      </c>
-      <c r="U12" t="s">
-        <v>39</v>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="P14" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>121</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14" t="s">
+        <v>122</v>
+      </c>
+      <c r="T14" t="s">
+        <v>123</v>
+      </c>
+      <c r="U14" t="s">
+        <v>124</v>
+      </c>
+      <c r="V14" t="s">
+        <v>124</v>
+      </c>
+      <c r="W14" t="s">
+        <v>125</v>
+      </c>
+      <c r="X14" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC14">
+        <v>3</v>
+      </c>
+      <c r="AD14">
+        <v>13</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
-      <c r="P13" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>72</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13" t="s">
-        <v>33</v>
-      </c>
-      <c r="T13" t="s">
-        <v>73</v>
-      </c>
-      <c r="U13" t="s">
-        <v>74</v>
-      </c>
-      <c r="V13" t="s">
-        <v>75</v>
-      </c>
-      <c r="W13" t="s">
-        <v>76</v>
-      </c>
-      <c r="X13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
-      <c r="P14" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>79</v>
-      </c>
-      <c r="R14">
-        <v>9</v>
-      </c>
-      <c r="S14" t="s">
-        <v>33</v>
-      </c>
-      <c r="T14" t="s">
-        <v>80</v>
-      </c>
-      <c r="U14" t="s">
-        <v>81</v>
-      </c>
-      <c r="V14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P15" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="Q15" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="R15">
         <v>1</v>
       </c>
       <c r="S15" t="s">
-        <v>33</v>
+        <v>130</v>
       </c>
       <c r="T15" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="U15" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="V15" t="s">
-        <v>39</v>
+        <v>132</v>
+      </c>
+      <c r="W15" t="s">
+        <v>133</v>
+      </c>
+      <c r="X15" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC15">
+        <v>3</v>
+      </c>
+      <c r="AD15">
+        <v>13</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>135</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P16" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="Q16" t="s">
-        <v>89</v>
+        <v>137</v>
       </c>
       <c r="R16">
+        <v>9</v>
+      </c>
+      <c r="S16" t="s">
+        <v>138</v>
+      </c>
+      <c r="T16" t="s">
+        <v>139</v>
+      </c>
+      <c r="U16" t="s">
+        <v>140</v>
+      </c>
+      <c r="V16" t="s">
+        <v>140</v>
+      </c>
+      <c r="W16" t="s">
+        <v>141</v>
+      </c>
+      <c r="X16" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC16">
+        <v>3</v>
+      </c>
+      <c r="AD16">
+        <v>36</v>
+      </c>
+      <c r="AE16">
+        <v>2</v>
+      </c>
+      <c r="AF16">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>143</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="P17" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>145</v>
+      </c>
+      <c r="R17">
         <v>1</v>
       </c>
-      <c r="S16" t="s">
-        <v>33</v>
-      </c>
-      <c r="T16" t="s">
-        <v>90</v>
-      </c>
-      <c r="U16" t="s">
-        <v>91</v>
-      </c>
-      <c r="V16" t="s">
-        <v>39</v>
+      <c r="S17" t="s">
+        <v>146</v>
+      </c>
+      <c r="T17" t="s">
+        <v>147</v>
+      </c>
+      <c r="U17" t="s">
+        <v>148</v>
+      </c>
+      <c r="V17" t="s">
+        <v>148</v>
+      </c>
+      <c r="W17" t="s">
+        <v>149</v>
+      </c>
+      <c r="X17" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC17">
+        <v>3</v>
+      </c>
+      <c r="AD17">
+        <v>13</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>92</v>
-      </c>
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
-      <c r="P17" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>94</v>
-      </c>
-      <c r="R17">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="P18" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>153</v>
+      </c>
+      <c r="R18">
         <v>3</v>
       </c>
-      <c r="S17" t="s">
-        <v>33</v>
-      </c>
-      <c r="T17" t="s">
-        <v>95</v>
-      </c>
-      <c r="U17" t="s">
-        <v>96</v>
-      </c>
-      <c r="V17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>97</v>
-      </c>
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
-      <c r="P18" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>99</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
       <c r="S18" t="s">
-        <v>33</v>
+        <v>154</v>
       </c>
       <c r="T18" t="s">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="U18" t="s">
-        <v>39</v>
+        <v>156</v>
+      </c>
+      <c r="V18" t="s">
+        <v>156</v>
+      </c>
+      <c r="W18" t="s">
+        <v>157</v>
+      </c>
+      <c r="X18" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/accessibility.xlsx
+++ b/accessibility.xlsx
@@ -11,9 +11,87 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="22">
-  <si>
-    <t>Domain</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
+  <si>
+    <t>domain</t>
+  </si>
+  <si>
+    <t>tld</t>
+  </si>
+  <si>
+    <t>registrar</t>
+  </si>
+  <si>
+    <t>whois_server</t>
+  </si>
+  <si>
+    <t>creation_date</t>
+  </si>
+  <si>
+    <t>updated_date</t>
+  </si>
+  <si>
+    <t>expiration_date</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>registrant_name</t>
+  </si>
+  <si>
+    <t>registrant_org</t>
+  </si>
+  <si>
+    <t>registrant_country</t>
+  </si>
+  <si>
+    <t>admin_email</t>
+  </si>
+  <si>
+    <t>tech_email</t>
+  </si>
+  <si>
+    <t>name_servers</t>
+  </si>
+  <si>
+    <t>dnssec</t>
+  </si>
+  <si>
+    <t>lookup_date</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>domain_count</t>
+  </si>
+  <si>
+    <t>nslookupA</t>
+  </si>
+  <si>
+    <t>nslookupAAAA</t>
+  </si>
+  <si>
+    <t>nslookupCNAME</t>
+  </si>
+  <si>
+    <t>nslookupMX</t>
+  </si>
+  <si>
+    <t>nslookupNS</t>
+  </si>
+  <si>
+    <t>nslookupPTR</t>
+  </si>
+  <si>
+    <t>nslookupTXT</t>
+  </si>
+  <si>
+    <t>nslookupSRV</t>
+  </si>
+  <si>
+    <t>nslookupSOA</t>
   </si>
   <si>
     <t>Violations</t>
@@ -31,52 +109,162 @@
     <t>000.institute</t>
   </si>
   <si>
+    <t>institute</t>
+  </si>
+  <si>
+    <t>2025-07-21T06:59:18.280518</t>
+  </si>
+  <si>
+    <t>terminal-error: Command '['whois', '000.institute']' timed out after 20 seconds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+Name:	000.institute
+Address: 3.13.167.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+*** Can't find 000.institute: No answer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+*** Can't find 000.institute: No answer
+Authoritative answers can be found from:
+000.institute
+	origin = ns1.name.com
+	mail addr = hostmaster.nsone.net
+	serial = 1579127764
+	refresh = 7200
+	retry = 3600
+	expire = 604800
+	minimum = 300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+000.institute	mail exchanger = 10 in1-smtp.messagingengine.com.
+000.institute	mail exchanger = 20 in2-smtp.messagingengine.com.
+Authoritative answers can be found from:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+000.institute	nameserver = ns2ckr.name.com.
+000.institute	nameserver = ns1kpv.name.com.
+000.institute	nameserver = ns3jnr.name.com.
+000.institute	nameserver = ns4ghm.name.com.
+Authoritative answers can be found from:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+000.institute	text = "v=spf1 include:spf.messagingengine.com ?all"
+Authoritative answers can be found from:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+000.institute
+	origin = ns1.name.com
+	mail addr = hostmaster.nsone.net
+	serial = 1579127764
+	refresh = 7200
+	retry = 3600
+	expire = 604800
+	minimum = 300
+Authoritative answers can be found from:</t>
+  </si>
+  <si>
     <t>UNREACHABLE</t>
   </si>
   <si>
     <t>1031.institute</t>
   </si>
   <si>
-    <t>0rg.institute</t>
-  </si>
-  <si>
-    <t>108.institute</t>
-  </si>
-  <si>
-    <t>00.institute</t>
-  </si>
-  <si>
-    <t>112pawangslot.institute</t>
-  </si>
-  <si>
-    <t>001.institute</t>
-  </si>
-  <si>
-    <t>10k.institute</t>
-  </si>
-  <si>
-    <t>1000x.institute</t>
-  </si>
-  <si>
-    <t>0x00.institute</t>
-  </si>
-  <si>
-    <t>1000neue.institute</t>
-  </si>
-  <si>
-    <t>1111.institute</t>
-  </si>
-  <si>
-    <t>100.institute</t>
-  </si>
-  <si>
-    <t>101.institute</t>
-  </si>
-  <si>
-    <t>110.institute</t>
-  </si>
-  <si>
-    <t>10x.institute</t>
+    <t>2025-07-21T07:01:58.453506</t>
+  </si>
+  <si>
+    <t>terminal-error: Command '['whois', '1031.institute']' timed out after 20 seconds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+Name:	1031.institute
+Address: 104.21.36.34
+Name:	1031.institute
+Address: 172.67.184.89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+Name:	1031.institute
+Address: 2606:4700:3035::6815:2422
+Name:	1031.institute
+Address: 2606:4700:3033::ac43:b859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+*** Can't find 1031.institute: No answer
+Authoritative answers can be found from:
+1031.institute
+	origin = ram.ns.cloudflare.com
+	mail addr = dns.cloudflare.com
+	serial = 2377792405
+	refresh = 10000
+	retry = 2400
+	expire = 604800
+	minimum = 1800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+1031.institute	mail exchanger = 20 fwd2.porkbun.com.
+1031.institute	mail exchanger = 10 fwd1.porkbun.com.
+Authoritative answers can be found from:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+1031.institute	nameserver = venus.ns.cloudflare.com.
+1031.institute	nameserver = ram.ns.cloudflare.com.
+Authoritative answers can be found from:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+1031.institute	text = "v=spf1 mx ~all"
+Authoritative answers can be found from:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+1031.institute
+	origin = ram.ns.cloudflare.com
+	mail addr = dns.cloudflare.com
+	serial = 2377792405
+	refresh = 10000
+	retry = 2400
+	expire = 604800
+	minimum = 1800
+Authoritative answers can be found from:</t>
   </si>
 </sst>
 </file>
@@ -453,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:AE3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -472,294 +660,195 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
+        <v>32</v>
+      </c>
+      <c r="P2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2">
+        <v>7</v>
+      </c>
+      <c r="S2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W2" t="s">
+        <v>39</v>
+      </c>
+      <c r="X2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>45</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3" t="s">
+        <v>46</v>
+      </c>
+      <c r="T3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V3" t="s">
+        <v>49</v>
+      </c>
+      <c r="W3" t="s">
+        <v>50</v>
+      </c>
+      <c r="X3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB3">
         <v>3</v>
       </c>
-      <c r="C3">
+      <c r="AC3">
         <v>8</v>
       </c>
-      <c r="D3">
+      <c r="AD3">
         <v>0</v>
       </c>
-      <c r="E3">
+      <c r="AE3">
         <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>27</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>35</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12">
-        <v>4</v>
-      </c>
-      <c r="C12">
-        <v>16</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13">
-        <v>46</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-      <c r="E13">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14">
-        <v>13</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-      <c r="C15">
-        <v>13</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="C16">
-        <v>36</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17">
-        <v>3</v>
-      </c>
-      <c r="C17">
-        <v>13</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/accessibility.xlsx
+++ b/accessibility.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="158">
   <si>
     <t>domain</t>
   </si>
@@ -264,6 +264,736 @@
 	retry = 2400
 	expire = 604800
 	minimum = 1800
+Authoritative answers can be found from:</t>
+  </si>
+  <si>
+    <t>0rg.institute</t>
+  </si>
+  <si>
+    <t>2025-07-21T06:59:58.324556</t>
+  </si>
+  <si>
+    <t>terminal-error: Command '['whois', '0rg.institute']' timed out after 20 seconds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+Name:	0rg.institute
+Address: 162.255.119.218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+*** Can't find 0rg.institute: No answer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+*** Can't find 0rg.institute: No answer
+Authoritative answers can be found from:
+0rg.institute
+	origin = dns1.registrar-servers.com
+	mail addr = hostmaster.registrar-servers.com
+	serial = 1740517028
+	refresh = 43200
+	retry = 3600
+	expire = 604800
+	minimum = 3601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+0rg.institute	mail exchanger = 10 mx.zoho.com.
+0rg.institute	mail exchanger = 50 mx3.zoho.com.
+0rg.institute	mail exchanger = 20 mx2.zoho.com.
+Authoritative answers can be found from:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+0rg.institute	nameserver = dns2.registrar-servers.com.
+0rg.institute	nameserver = dns1.registrar-servers.com.
+Authoritative answers can be found from:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+0rg.institute	text = "v=spf1 include:zohomail.com ~all"
+0rg.institute	text = "zoho-verification=zb80233793.zmverify.zoho.com"
+Authoritative answers can be found from:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+0rg.institute
+	origin = dns1.registrar-servers.com
+	mail addr = hostmaster.registrar-servers.com
+	serial = 1740517028
+	refresh = 43200
+	retry = 3600
+	expire = 604800
+	minimum = 3601
+Authoritative answers can be found from:</t>
+  </si>
+  <si>
+    <t>108.institute</t>
+  </si>
+  <si>
+    <t>2025-07-21T07:02:18.474713</t>
+  </si>
+  <si>
+    <t>terminal-error: Command '['whois', '108.institute']' timed out after 20 seconds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+Name:	108.institute
+Address: 217.70.184.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+*** Can't find 108.institute: No answer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+*** Can't find 108.institute: No answer
+Authoritative answers can be found from:
+108.institute
+	origin = ns1.gandi.net
+	mail addr = hostmaster.gandi.net
+	serial = 1752710400
+	refresh = 10800
+	retry = 3600
+	expire = 604800
+	minimum = 10800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+108.institute	mail exchanger = 50 fb.mail.gandi.net.
+108.institute	mail exchanger = 10 spool.mail.gandi.net.
+Authoritative answers can be found from:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+108.institute	nameserver = ns-212-c.gandi.net.
+108.institute	nameserver = ns-26-a.gandi.net.
+108.institute	nameserver = ns-133-b.gandi.net.
+Authoritative answers can be found from:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+108.institute	text = "v=spf1 include:_mailcust.gandi.net ?all"
+Authoritative answers can be found from:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+108.institute
+	origin = ns1.gandi.net
+	mail addr = hostmaster.gandi.net
+	serial = 1752710400
+	refresh = 10800
+	retry = 3600
+	expire = 604800
+	minimum = 10800
+Authoritative answers can be found from:</t>
+  </si>
+  <si>
+    <t>00.institute</t>
+  </si>
+  <si>
+    <t>2025-07-21T06:58:58.258592</t>
+  </si>
+  <si>
+    <t>terminal-error: Command '['whois', '00.institute']' timed out after 20 seconds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+Name:	00.institute
+Address: 44.227.65.245
+Name:	00.institute
+Address: 44.227.76.166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+*** Can't find 00.institute: No answer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+*** Can't find 00.institute: No answer
+Authoritative answers can be found from:
+00.institute
+	origin = curitiba.ns.porkbun.com
+	mail addr = dns.cloudflare.com
+	serial = 2372670378
+	refresh = 10000
+	retry = 2400
+	expire = 604800
+	minimum = 1800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+00.institute	nameserver = salvador.ns.porkbun.com.
+00.institute	nameserver = curitiba.ns.porkbun.com.
+00.institute	nameserver = maceio.ns.porkbun.com.
+00.institute	nameserver = fortaleza.ns.porkbun.com.
+Authoritative answers can be found from:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+00.institute
+	origin = curitiba.ns.porkbun.com
+	mail addr = dns.cloudflare.com
+	serial = 2372670378
+	refresh = 10000
+	retry = 2400
+	expire = 604800
+	minimum = 1800
+Authoritative answers can be found from:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+00.institute	nameserver = fortaleza.ns.porkbun.com.
+00.institute	nameserver = salvador.ns.porkbun.com.
+00.institute	nameserver = curitiba.ns.porkbun.com.
+00.institute	nameserver = maceio.ns.porkbun.com.
+Authoritative answers can be found from:</t>
+  </si>
+  <si>
+    <t>112pawangslot.institute</t>
+  </si>
+  <si>
+    <t>2025-07-21T07:03:58.583726</t>
+  </si>
+  <si>
+    <t>terminal-error: Command '['whois', '112pawangslot.institute']' timed out after 20 seconds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+** server can't find 112pawangslot.institute: NXDOMAIN</t>
+  </si>
+  <si>
+    <t>001.institute</t>
+  </si>
+  <si>
+    <t>2025-07-21T06:59:38.302442</t>
+  </si>
+  <si>
+    <t>terminal-error: Command '['whois', '001.institute']' timed out after 20 seconds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+** server can't find 001.institute: NXDOMAIN</t>
+  </si>
+  <si>
+    <t>10k.institute</t>
+  </si>
+  <si>
+    <t>2025-07-21T07:02:38.496885</t>
+  </si>
+  <si>
+    <t>terminal-error: Command '['whois', '10k.institute']' timed out after 20 seconds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+** server can't find 10k.institute: NXDOMAIN</t>
+  </si>
+  <si>
+    <t>1000x.institute</t>
+  </si>
+  <si>
+    <t>2025-07-21T07:01:18.410601</t>
+  </si>
+  <si>
+    <t>terminal-error: Command '['whois', '1000x.institute']' timed out after 20 seconds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+** server can't find 1000x.institute: NXDOMAIN</t>
+  </si>
+  <si>
+    <t>0x00.institute</t>
+  </si>
+  <si>
+    <t>2025-07-21T07:00:18.345599</t>
+  </si>
+  <si>
+    <t>terminal-error: Command '['whois', '0x00.institute']' timed out after 20 seconds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+Name:	0x00.institute
+Address: 185.248.198.180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+*** Can't find 0x00.institute: No answer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+*** Can't find 0x00.institute: No answer
+Authoritative answers can be found from:
+0x00.institute
+	origin = ns1.gazduire.net
+	mail addr = hostmaster.0x00.institute
+	serial = 2025062005
+	refresh = 3600
+	retry = 3600
+	expire = 1209600
+	minimum = 86400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+0x00.institute	mail exchanger = 10 mail.0x00.institute.
+Authoritative answers can be found from:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+0x00.institute	nameserver = ns1.gazduire.net.
+0x00.institute	nameserver = ns2.gazduire.net.
+Authoritative answers can be found from:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+0x00.institute	text = "v=spf1 a mx ip4:185.248.198.0 ~all"
+Authoritative answers can be found from:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+0x00.institute
+	origin = ns1.gazduire.net
+	mail addr = hostmaster.0x00.institute
+	serial = 2025062005
+	refresh = 3600
+	retry = 3600
+	expire = 1209600
+	minimum = 86400
+Authoritative answers can be found from:</t>
+  </si>
+  <si>
+    <t>1000neue.institute</t>
+  </si>
+  <si>
+    <t>2025-07-21T07:00:58.388503</t>
+  </si>
+  <si>
+    <t>terminal-error: Command '['whois', '1000neue.institute']' timed out after 20 seconds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+Name:	1000neue.institute
+Address: 185.224.138.147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+*** Can't find 1000neue.institute: No answer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+*** Can't find 1000neue.institute: No answer
+Authoritative answers can be found from:
+1000neue.institute
+	origin = ns1.dns-parking.com
+	mail addr = dns.hostinger.com
+	serial = 2025071701
+	refresh = 10000
+	retry = 2400
+	expire = 604800
+	minimum = 600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+1000neue.institute	mail exchanger = 5 mx1.hostinger.com.
+1000neue.institute	mail exchanger = 10 mx2.hostinger.com.
+Authoritative answers can be found from:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+1000neue.institute	nameserver = ns2.dns-parking.com.
+1000neue.institute	nameserver = ns1.dns-parking.com.
+Authoritative answers can be found from:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+1000neue.institute	text = "v=spf1 include:_spf.mail.hostinger.com ~all"
+Authoritative answers can be found from:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+1000neue.institute
+	origin = ns1.dns-parking.com
+	mail addr = dns.hostinger.com
+	serial = 2025071701
+	refresh = 10000
+	retry = 2400
+	expire = 604800
+	minimum = 600
+Authoritative answers can be found from:</t>
+  </si>
+  <si>
+    <t>1111.institute</t>
+  </si>
+  <si>
+    <t>2025-07-21T07:03:38.562427</t>
+  </si>
+  <si>
+    <t>terminal-error: Command '['whois', '1111.institute']' timed out after 20 seconds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+Name:	1111.institute
+Address: 13.248.213.45
+Name:	1111.institute
+Address: 76.223.67.189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+*** Can't find 1111.institute: No answer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+*** Can't find 1111.institute: No answer
+Authoritative answers can be found from:
+1111.institute
+	origin = ns61.domaincontrol.com
+	mail addr = dns.jomax.net
+	serial = 2025070200
+	refresh = 28800
+	retry = 7200
+	expire = 604800
+	minimum = 600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+1111.institute	nameserver = ns62.domaincontrol.com.
+1111.institute	nameserver = ns61.domaincontrol.com.
+Authoritative answers can be found from:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+1111.institute
+	origin = ns61.domaincontrol.com
+	mail addr = dns.jomax.net
+	serial = 2025070200
+	refresh = 28800
+	retry = 7200
+	expire = 604800
+	minimum = 600
+Authoritative answers can be found from:</t>
+  </si>
+  <si>
+    <t>100.institute</t>
+  </si>
+  <si>
+    <t>2025-07-21T07:00:38.367482</t>
+  </si>
+  <si>
+    <t>terminal-error: Command '['whois', '100.institute']' timed out after 20 seconds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+Name:	100.institute
+Address: 15.197.148.33
+Name:	100.institute
+Address: 3.33.130.190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+*** Can't find 100.institute: No answer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+*** Can't find 100.institute: No answer
+Authoritative answers can be found from:
+100.institute
+	origin = ns35.domaincontrol.com
+	mail addr = dns.jomax.net
+	serial = 2023092600
+	refresh = 28800
+	retry = 7200
+	expire = 604800
+	minimum = 600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+100.institute	nameserver = ns35.domaincontrol.com.
+100.institute	nameserver = ns36.domaincontrol.com.
+Authoritative answers can be found from:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+100.institute
+	origin = ns35.domaincontrol.com
+	mail addr = dns.jomax.net
+	serial = 2023092600
+	refresh = 28800
+	retry = 7200
+	expire = 604800
+	minimum = 600
+Authoritative answers can be found from:</t>
+  </si>
+  <si>
+    <t>101.institute</t>
+  </si>
+  <si>
+    <t>2025-07-21T07:01:38.431408</t>
+  </si>
+  <si>
+    <t>terminal-error: Command '['whois', '101.institute']' timed out after 20 seconds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+Name:	101.institute
+Address: 13.248.243.5
+Name:	101.institute
+Address: 76.223.105.230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+*** Can't find 101.institute: No answer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+*** Can't find 101.institute: No answer
+Authoritative answers can be found from:
+101.institute
+	origin = ns23.domaincontrol.com
+	mail addr = dns.jomax.net
+	serial = 2024111701
+	refresh = 28800
+	retry = 7200
+	expire = 604800
+	minimum = 600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+101.institute	nameserver = ns24.domaincontrol.com.
+101.institute	nameserver = ns23.domaincontrol.com.
+Authoritative answers can be found from:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+101.institute
+	origin = ns23.domaincontrol.com
+	mail addr = dns.jomax.net
+	serial = 2024111701
+	refresh = 28800
+	retry = 7200
+	expire = 604800
+	minimum = 600
+Authoritative answers can be found from:</t>
+  </si>
+  <si>
+    <t>110.institute</t>
+  </si>
+  <si>
+    <t>2025-07-21T07:03:18.541498</t>
+  </si>
+  <si>
+    <t>terminal-error: Command '['whois', '110.institute']' timed out after 20 seconds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+Name:	110.institute
+Address: 52.223.13.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+*** Can't find 110.institute: No answer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+*** Can't find 110.institute: No answer
+Authoritative answers can be found from:
+110.institute
+	origin = ns1.renewyourname.net
+	mail addr = hostmaster.renewyourname.net
+	serial = 2025061707
+	refresh = 86400
+	retry = 7200
+	expire = 2592000
+	minimum = 43200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+110.institute	nameserver = ns2.renewyourname.net.
+110.institute	nameserver = ns1.renewyourname.net.
+Authoritative answers can be found from:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+110.institute
+	origin = ns1.renewyourname.net
+	mail addr = hostmaster.renewyourname.net
+	serial = 2025061707
+	refresh = 86400
+	retry = 7200
+	expire = 2592000
+	minimum = 43200
+Authoritative answers can be found from:</t>
+  </si>
+  <si>
+    <t>10x.institute</t>
+  </si>
+  <si>
+    <t>2025-07-21T07:02:58.519483</t>
+  </si>
+  <si>
+    <t>terminal-error: Command '['whois', '10x.institute']' timed out after 20 seconds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+Name:	10x.institute
+Address: 34.216.117.25
+Name:	10x.institute
+Address: 54.149.79.189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+*** Can't find 10x.institute: No answer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+*** Can't find 10x.institute: No answer
+Authoritative answers can be found from:
+10x.institute
+	origin = launch1.spaceship.net
+	mail addr = support.spaceship.com
+	serial = 1750431983
+	refresh = 43200
+	retry = 3600
+	expire = 604800
+	minimum = 3600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+10x.institute	nameserver = launch2.spaceship.net.
+10x.institute	nameserver = launch1.spaceship.net.
+Authoritative answers can be found from:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server:		127.0.0.53
+Address:	127.0.0.53#53
+Non-authoritative answer:
+10x.institute
+	origin = launch1.spaceship.net
+	mail addr = support.spaceship.com
+	serial = 1750431983
+	refresh = 43200
+	retry = 3600
+	expire = 604800
+	minimum = 3600
 Authoritative answers can be found from:</t>
   </si>
 </sst>
@@ -641,7 +1371,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE3"/>
+  <dimension ref="A1:AE18"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
@@ -851,8 +1581,848 @@
         <v>79</v>
       </c>
     </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P4" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4" t="s">
+        <v>56</v>
+      </c>
+      <c r="T4" t="s">
+        <v>57</v>
+      </c>
+      <c r="U4" t="s">
+        <v>58</v>
+      </c>
+      <c r="V4" t="s">
+        <v>59</v>
+      </c>
+      <c r="W4" t="s">
+        <v>60</v>
+      </c>
+      <c r="X4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>65</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5" t="s">
+        <v>66</v>
+      </c>
+      <c r="T5" t="s">
+        <v>67</v>
+      </c>
+      <c r="U5" t="s">
+        <v>68</v>
+      </c>
+      <c r="V5" t="s">
+        <v>69</v>
+      </c>
+      <c r="W5" t="s">
+        <v>70</v>
+      </c>
+      <c r="X5" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>75</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6" t="s">
+        <v>76</v>
+      </c>
+      <c r="T6" t="s">
+        <v>77</v>
+      </c>
+      <c r="U6" t="s">
+        <v>78</v>
+      </c>
+      <c r="V6" t="s">
+        <v>78</v>
+      </c>
+      <c r="W6" t="s">
+        <v>79</v>
+      </c>
+      <c r="X6" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB6">
+        <v>5</v>
+      </c>
+      <c r="AC6">
+        <v>27</v>
+      </c>
+      <c r="AD6">
+        <v>1</v>
+      </c>
+      <c r="AE6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>75</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7" t="s">
+        <v>76</v>
+      </c>
+      <c r="T7" t="s">
+        <v>77</v>
+      </c>
+      <c r="U7" t="s">
+        <v>78</v>
+      </c>
+      <c r="V7" t="s">
+        <v>78</v>
+      </c>
+      <c r="W7" t="s">
+        <v>81</v>
+      </c>
+      <c r="X7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB7">
+        <v>5</v>
+      </c>
+      <c r="AC7">
+        <v>27</v>
+      </c>
+      <c r="AD7">
+        <v>1</v>
+      </c>
+      <c r="AE7">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P8" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>84</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8" t="s">
+        <v>85</v>
+      </c>
+      <c r="T8" t="s">
+        <v>85</v>
+      </c>
+      <c r="U8" t="s">
+        <v>85</v>
+      </c>
+      <c r="V8" t="s">
+        <v>85</v>
+      </c>
+      <c r="W8" t="s">
+        <v>85</v>
+      </c>
+      <c r="X8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>88</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9" t="s">
+        <v>89</v>
+      </c>
+      <c r="T9" t="s">
+        <v>89</v>
+      </c>
+      <c r="U9" t="s">
+        <v>89</v>
+      </c>
+      <c r="V9" t="s">
+        <v>89</v>
+      </c>
+      <c r="W9" t="s">
+        <v>89</v>
+      </c>
+      <c r="X9" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>92</v>
+      </c>
+      <c r="R10">
+        <v>11</v>
+      </c>
+      <c r="S10" t="s">
+        <v>93</v>
+      </c>
+      <c r="T10" t="s">
+        <v>93</v>
+      </c>
+      <c r="U10" t="s">
+        <v>93</v>
+      </c>
+      <c r="V10" t="s">
+        <v>93</v>
+      </c>
+      <c r="W10" t="s">
+        <v>93</v>
+      </c>
+      <c r="X10" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="P11" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>96</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11" t="s">
+        <v>97</v>
+      </c>
+      <c r="T11" t="s">
+        <v>97</v>
+      </c>
+      <c r="U11" t="s">
+        <v>97</v>
+      </c>
+      <c r="V11" t="s">
+        <v>97</v>
+      </c>
+      <c r="W11" t="s">
+        <v>97</v>
+      </c>
+      <c r="X11" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="P12" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>100</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12" t="s">
+        <v>101</v>
+      </c>
+      <c r="T12" t="s">
+        <v>102</v>
+      </c>
+      <c r="U12" t="s">
+        <v>103</v>
+      </c>
+      <c r="V12" t="s">
+        <v>104</v>
+      </c>
+      <c r="W12" t="s">
+        <v>105</v>
+      </c>
+      <c r="X12" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB12">
+        <v>4</v>
+      </c>
+      <c r="AC12">
+        <v>16</v>
+      </c>
+      <c r="AD12">
+        <v>1</v>
+      </c>
+      <c r="AE12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="P13" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>110</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13" t="s">
+        <v>111</v>
+      </c>
+      <c r="T13" t="s">
+        <v>112</v>
+      </c>
+      <c r="U13" t="s">
+        <v>113</v>
+      </c>
+      <c r="V13" t="s">
+        <v>114</v>
+      </c>
+      <c r="W13" t="s">
+        <v>115</v>
+      </c>
+      <c r="X13" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB13">
+        <v>3</v>
+      </c>
+      <c r="AC13">
+        <v>46</v>
+      </c>
+      <c r="AD13">
+        <v>3</v>
+      </c>
+      <c r="AE13">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="P14" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>120</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14" t="s">
+        <v>121</v>
+      </c>
+      <c r="T14" t="s">
+        <v>122</v>
+      </c>
+      <c r="U14" t="s">
+        <v>123</v>
+      </c>
+      <c r="V14" t="s">
+        <v>123</v>
+      </c>
+      <c r="W14" t="s">
+        <v>124</v>
+      </c>
+      <c r="X14" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="P15" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>128</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15" t="s">
+        <v>129</v>
+      </c>
+      <c r="T15" t="s">
+        <v>130</v>
+      </c>
+      <c r="U15" t="s">
+        <v>131</v>
+      </c>
+      <c r="V15" t="s">
+        <v>131</v>
+      </c>
+      <c r="W15" t="s">
+        <v>132</v>
+      </c>
+      <c r="X15" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="P16" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>136</v>
+      </c>
+      <c r="R16">
+        <v>9</v>
+      </c>
+      <c r="S16" t="s">
+        <v>137</v>
+      </c>
+      <c r="T16" t="s">
+        <v>138</v>
+      </c>
+      <c r="U16" t="s">
+        <v>139</v>
+      </c>
+      <c r="V16" t="s">
+        <v>139</v>
+      </c>
+      <c r="W16" t="s">
+        <v>140</v>
+      </c>
+      <c r="X16" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB16">
+        <v>3</v>
+      </c>
+      <c r="AC16">
+        <v>36</v>
+      </c>
+      <c r="AD16">
+        <v>2</v>
+      </c>
+      <c r="AE16">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="P17" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>144</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17" t="s">
+        <v>145</v>
+      </c>
+      <c r="T17" t="s">
+        <v>146</v>
+      </c>
+      <c r="U17" t="s">
+        <v>147</v>
+      </c>
+      <c r="V17" t="s">
+        <v>147</v>
+      </c>
+      <c r="W17" t="s">
+        <v>148</v>
+      </c>
+      <c r="X17" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>150</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="P18" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>152</v>
+      </c>
+      <c r="R18">
+        <v>3</v>
+      </c>
+      <c r="S18" t="s">
+        <v>153</v>
+      </c>
+      <c r="T18" t="s">
+        <v>154</v>
+      </c>
+      <c r="U18" t="s">
+        <v>155</v>
+      </c>
+      <c r="V18" t="s">
+        <v>155</v>
+      </c>
+      <c r="W18" t="s">
+        <v>156</v>
+      </c>
+      <c r="X18" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>